--- a/src/main/webapp/report/excel/Payment-ReportOther.xlsx
+++ b/src/main/webapp/report/excel/Payment-ReportOther.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08D0FC3-A75A-44DE-94FC-0B079F782106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="5385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,19 +79,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="TH NiramitIT๙"/>
     </font>
     <font>
       <sz val="12"/>
@@ -153,43 +149,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -205,7 +195,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,9 +270,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,125 +542,105 @@
     <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:18" ht="24">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15.75">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:18" ht="15" customHeight="1">
+      <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="4.3307086614173231" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -644,7 +648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -656,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
